--- a/data/trans_camb/IP2004-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2004-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,19</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 0,66</t>
+          <t>-4,7; 18,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 0,07</t>
+          <t>-12,57; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,09</t>
+          <t>-11,49; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,04</t>
+          <t>0,0; 25,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,4</t>
+          <t>2,9; 33,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,09</t>
+          <t>0,0; 17,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -0,62</t>
+          <t>0,0; 16,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,68</t>
+          <t>-5,91; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-51,73%</t>
+          <t>106,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-63,11%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,98%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-41,03%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-51,49%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-46,09%</t>
+          <t>469,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-56,89%</t>
+          <t>433,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-34,35%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-85,6; 57,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-91,81; 32,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,27; 113,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,83; 52,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,81; 31,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,66; 55,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,23; 5,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,75; -14,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 26,58</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,31</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>-1,39</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,69</t>
+          <t>-4,47; 0,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,24</t>
+          <t>-4,97; 0,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,67</t>
+          <t>-3,62; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,57</t>
+          <t>-4,73; 1,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,86</t>
+          <t>-5,34; 0,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,92</t>
+          <t>-5,0; 1,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,43</t>
+          <t>-3,99; 0,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,53</t>
+          <t>-4,2; -0,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,91</t>
+          <t>-3,29; 0,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>-51,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-36,18%</t>
+          <t>-63,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,04%</t>
+          <t>-26,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>104,84%</t>
+          <t>-41,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>-51,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-65,56%</t>
+          <t>-40,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>-46,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>-56,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-37,51%</t>
+          <t>-34,35%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,17; 300,64</t>
+          <t>-85,6; 57,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,01; 145,65</t>
+          <t>-91,81; 32,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,5; 276,41</t>
+          <t>-74,27; 113,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 570,92</t>
+          <t>-74,83; 52,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,56; 278,82</t>
+          <t>-82,81; 31,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,66; 55,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 260,26</t>
+          <t>-74,23; 5,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 115,86</t>
+          <t>-80,75; -14,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-80,56; 90,43</t>
+          <t>-66,92; 26,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-2,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 18,67</t>
+          <t>-4,66; 1,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 0,0</t>
+          <t>-5,33; 0,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 0,0</t>
+          <t>-4,41; 1,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,57</t>
+          <t>-5,21; 1,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 33,14</t>
+          <t>-4,66; 1,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,08; -0,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,25</t>
+          <t>-3,88; 0,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,69</t>
+          <t>-3,77; 0,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,0</t>
+          <t>-4,23; -0,31</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>106,7%</t>
+          <t>-49,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-63,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-40,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-46,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-32,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>469,49%</t>
+          <t>-47,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>433,37%</t>
+          <t>-47,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-59,0%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 146,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 67,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,94; 124,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,91; 103,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,63; 106,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 3,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,25; 31,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,01; 20,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,02; -6,13</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-0,83</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,3</t>
+          <t>-2,5; 2,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,24</t>
+          <t>-3,42; 1,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 1,42</t>
+          <t>-2,43; 2,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,4</t>
+          <t>-0,72; 5,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,85</t>
+          <t>-2,33; 2,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -0,33</t>
+          <t>-3,6; 0,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,51</t>
+          <t>-0,78; 3,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,23</t>
+          <t>-2,09; 1,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -0,31</t>
+          <t>-2,48; 0,91</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-49,53%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-63,25%</t>
+          <t>-36,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-40,78%</t>
+          <t>-12,04%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-46,3%</t>
+          <t>104,84%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-32,74%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-75,14%</t>
+          <t>-65,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-47,83%</t>
+          <t>49,97%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-47,46%</t>
+          <t>-11,63%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-59,0%</t>
+          <t>-37,51%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 146,89</t>
+          <t>-75,17; 300,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 67,95</t>
+          <t>-89,01; 145,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-87,94; 124,2</t>
+          <t>-77,5; 276,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-91,91; 103,47</t>
+          <t>-39,17; 570,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-83,63; 106,25</t>
+          <t>-75,56; 278,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-81,25; 31,79</t>
+          <t>-29,65; 260,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-79,01; 20,96</t>
+          <t>-65,43; 115,86</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-85,02; -6,13</t>
+          <t>-80,56; 90,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2004-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2004-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 18,67</t>
+          <t>-4,73; 18,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 0,0</t>
+          <t>-12,56; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 0,0</t>
+          <t>-11,04; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,57</t>
+          <t>0,0; 26,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 33,14</t>
+          <t>2,71; 33,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,25</t>
+          <t>0,0; 16,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,69</t>
+          <t>-0,76; 15,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,0</t>
+          <t>-6,16; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,95</t>
+          <t>-3,08; 5,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 3,98</t>
+          <t>-4,17; 3,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 3,14</t>
+          <t>-4,71; 3,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 1,75</t>
+          <t>-5,77; 2,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,32</t>
+          <t>-5,26; 3,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,4; -1,67</t>
+          <t>-8,33; -1,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,32</t>
+          <t>-3,32; 2,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,18</t>
+          <t>-3,47; 2,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -0,2</t>
+          <t>-5,14; -0,21</t>
         </is>
       </c>
     </row>
@@ -1007,27 +1007,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,39; 247,71</t>
+          <t>-63,26; 252,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,21; 212,18</t>
+          <t>-80,59; 186,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,38; 175,54</t>
+          <t>-84,28; 151,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-88,96; 155,11</t>
+          <t>-87,64; 161,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-85,99; 195,0</t>
+          <t>-85,31; 179,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,91; 91,46</t>
+          <t>-62,64; 120,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,83; 90,96</t>
+          <t>-66,82; 82,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-91,41; 4,01</t>
+          <t>-90,26; 5,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 0,66</t>
+          <t>-4,5; 0,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 0,07</t>
+          <t>-4,65; -0,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,09</t>
+          <t>-3,84; 1,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,04</t>
+          <t>-5,08; 1,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,4</t>
+          <t>-5,48; 0,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 1,42</t>
+          <t>-5,07; 1,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,09</t>
+          <t>-3,98; -0,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -0,62</t>
+          <t>-4,37; -0,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,68</t>
+          <t>-3,47; 0,68</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,6; 57,41</t>
+          <t>-84,52; 51,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-91,81; 32,11</t>
+          <t>-90,8; 16,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,27; 113,28</t>
+          <t>-75,02; 98,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,83; 52,97</t>
+          <t>-76,68; 55,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,81; 31,99</t>
+          <t>-82,56; 26,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,66; 55,5</t>
+          <t>-81,29; 54,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-74,23; 5,94</t>
+          <t>-75,48; -3,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,75; -14,05</t>
+          <t>-81,23; -13,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 26,58</t>
+          <t>-67,77; 24,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,3</t>
+          <t>-4,65; 1,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,24</t>
+          <t>-5,33; 0,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 1,42</t>
+          <t>-4,66; 1,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,4</t>
+          <t>-5,25; 1,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,85</t>
+          <t>-4,63; 1,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -0,33</t>
+          <t>-6,12; -0,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,51</t>
+          <t>-3,93; 0,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,23</t>
+          <t>-4,1; 0,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -0,31</t>
+          <t>-4,2; -0,2</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 146,89</t>
+          <t>-92,44; 114,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 67,95</t>
+          <t>-100,0; 52,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-87,94; 124,2</t>
+          <t>-88,3; 125,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-91,91; 103,47</t>
+          <t>-89,33; 87,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-83,63; 106,25</t>
+          <t>-81,41; 115,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3,91</t>
+          <t>-95,99; 14,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-81,25; 31,79</t>
+          <t>-81,73; 30,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-79,01; 20,96</t>
+          <t>-81,36; 15,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-85,02; -6,13</t>
+          <t>-86,3; -7,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,69</t>
+          <t>-2,49; 2,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,24</t>
+          <t>-3,17; 1,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,67</t>
+          <t>-2,6; 2,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,57</t>
+          <t>-0,6; 5,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,86</t>
+          <t>-2,28; 2,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,92</t>
+          <t>-3,72; 0,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,43</t>
+          <t>-0,81; 3,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,53</t>
+          <t>-2,16; 1,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,91</t>
+          <t>-2,53; 0,98</t>
         </is>
       </c>
     </row>
@@ -1655,27 +1655,27 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-75,17; 300,64</t>
+          <t>-76,33; 256,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-89,01; 145,65</t>
+          <t>-86,22; 185,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-77,5; 276,41</t>
+          <t>-78,4; 320,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 570,92</t>
+          <t>-33,16; 567,05</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,56; 278,82</t>
+          <t>-68,98; 441,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 260,26</t>
+          <t>-26,55; 240,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 115,86</t>
+          <t>-68,14; 124,79</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-80,56; 90,43</t>
+          <t>-82,26; 94,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,8</t>
+          <t>-2,05; 0,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,88; -0,39</t>
+          <t>-2,94; -0,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,57</t>
+          <t>-2,27; 0,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,34</t>
+          <t>-1,97; 1,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,97</t>
+          <t>-2,06; 0,88</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,93</t>
+          <t>-3,71; -0,93</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,5</t>
+          <t>-1,5; 0,59</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,06; -0,02</t>
+          <t>-2,1; -0,06</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,51; -0,51</t>
+          <t>-2,62; -0,55</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 35,67</t>
+          <t>-53,36; 34,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-71,9; -9,91</t>
+          <t>-73,45; -0,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-57,62; 21,7</t>
+          <t>-58,24; 28,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 50,94</t>
+          <t>-46,87; 50,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-51,94; 36,35</t>
+          <t>-50,25; 35,52</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-83,79; -26,03</t>
+          <t>-84,47; -31,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 20,62</t>
+          <t>-41,07; 21,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 2,49</t>
+          <t>-54,93; -1,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-65,25; -15,49</t>
+          <t>-65,75; -18,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2004-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2004-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 18,28</t>
+          <t>-4,77; 19,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 0,0</t>
+          <t>-12,6; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 0,0</t>
+          <t>-12,65; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,88</t>
+          <t>0,0; 26,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 33,13</t>
+          <t>2,77; 32,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,82</t>
+          <t>-0,66; 15,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 15,7</t>
+          <t>0,0; 15,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 0,0</t>
+          <t>-6,23; 0,0</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,25</t>
+          <t>-3,21; 4,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,55</t>
+          <t>-3,8; 4,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 3,0</t>
+          <t>-4,74; 2,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 2,56</t>
+          <t>-6,04; 1,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 3,28</t>
+          <t>-5,82; 2,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; -1,76</t>
+          <t>-8,69; -1,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,58</t>
+          <t>-3,34; 2,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,11</t>
+          <t>-3,61; 2,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,21</t>
+          <t>-5,12; -0,39</t>
         </is>
       </c>
     </row>
@@ -1007,27 +1007,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,26; 252,79</t>
+          <t>-63,56; 292,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,59; 186,72</t>
+          <t>-77,23; 239,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-84,28; 151,06</t>
+          <t>-85,52; 158,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-87,64; 161,2</t>
+          <t>-89,23; 118,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-85,31; 179,37</t>
+          <t>-86,72; 193,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,64; 120,33</t>
+          <t>-64,53; 92,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,82; 82,57</t>
+          <t>-67,97; 95,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-90,26; 5,84</t>
+          <t>-90,04; 10,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,51</t>
+          <t>-4,48; 0,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -0,02</t>
+          <t>-4,94; 0,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,86</t>
+          <t>-3,82; 1,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,05</t>
+          <t>-5,27; 1,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 0,44</t>
+          <t>-5,53; 0,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,28</t>
+          <t>-4,65; 1,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -0,17</t>
+          <t>-3,81; 0,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; -0,54</t>
+          <t>-4,18; -0,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,68</t>
+          <t>-3,71; 0,68</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-84,52; 51,87</t>
+          <t>-83,0; 62,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-90,8; 16,97</t>
+          <t>-93,22; 18,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,02; 98,31</t>
+          <t>-75,17; 106,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-76,68; 55,06</t>
+          <t>-78,96; 54,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,56; 26,87</t>
+          <t>-83,37; 24,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,29; 54,94</t>
+          <t>-76,77; 66,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,48; -3,46</t>
+          <t>-71,82; 8,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,23; -13,32</t>
+          <t>-80,12; -7,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,77; 24,32</t>
+          <t>-69,85; 24,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 1,29</t>
+          <t>-4,87; 1,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,25</t>
+          <t>-5,17; 0,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,56</t>
+          <t>-4,59; 1,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 1,28</t>
+          <t>-4,89; 1,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 1,91</t>
+          <t>-4,51; 2,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; -0,47</t>
+          <t>-6,0; -0,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,53</t>
+          <t>-3,97; 0,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,18</t>
+          <t>-3,95; 0,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -0,2</t>
+          <t>-4,44; -0,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-92,44; 114,8</t>
+          <t>-94,65; 149,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,62</t>
+          <t>-92,73; 59,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-88,3; 125,84</t>
+          <t>-85,46; 112,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-89,33; 87,76</t>
+          <t>-89,15; 122,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-81,41; 115,91</t>
+          <t>-82,8; 131,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-95,99; 14,76</t>
+          <t>-100,0; 11,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 30,34</t>
+          <t>-82,65; 22,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-81,36; 15,57</t>
+          <t>-79,02; 16,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,3; -7,53</t>
+          <t>-86,07; 6,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,62</t>
+          <t>-2,67; 2,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,44</t>
+          <t>-3,31; 1,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,6</t>
+          <t>-2,94; 2,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,71</t>
+          <t>-0,51; 5,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,98</t>
+          <t>-2,25; 3,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,88</t>
+          <t>-4,01; 0,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,11</t>
+          <t>-1,13; 3,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,62</t>
+          <t>-2,02; 1,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,98</t>
+          <t>-2,62; 1,09</t>
         </is>
       </c>
     </row>
@@ -1655,27 +1655,27 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,33; 256,85</t>
+          <t>-76,4; 269,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-86,22; 185,57</t>
+          <t>-85,97; 229,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-78,4; 320,78</t>
+          <t>-83,79; 216,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 567,05</t>
+          <t>-30,12; 740,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-68,98; 441,77</t>
+          <t>-75,47; 417,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 240,87</t>
+          <t>-37,67; 235,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-68,14; 124,79</t>
+          <t>-63,55; 135,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,26; 94,62</t>
+          <t>-79,92; 106,02</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,71</t>
+          <t>-2,22; 0,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,94; -0,18</t>
+          <t>-2,88; -0,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,65</t>
+          <t>-2,4; 0,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,26</t>
+          <t>-1,86; 1,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,88</t>
+          <t>-2,15; 1,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -0,93</t>
+          <t>-3,51; -0,84</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,59</t>
+          <t>-1,51; 0,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,1; -0,06</t>
+          <t>-2,16; -0,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,62; -0,55</t>
+          <t>-2,58; -0,58</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-53,36; 34,88</t>
+          <t>-56,07; 27,63</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-73,45; -0,8</t>
+          <t>-74,33; -8,23</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 28,68</t>
+          <t>-61,74; 21,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-46,87; 50,37</t>
+          <t>-43,82; 51,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-50,25; 35,52</t>
+          <t>-52,45; 40,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-84,47; -31,59</t>
+          <t>-83,57; -27,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 21,31</t>
+          <t>-40,0; 23,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-54,93; -1,95</t>
+          <t>-55,59; -0,22</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-65,75; -18,69</t>
+          <t>-65,39; -19,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2004-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2004-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les sangran las encias al cepillarse</t>
+          <t>Menores a los que les sangran las encías</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-2,26</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 19,12</t>
+          <t>-3,6; 3,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 0,0</t>
+          <t>-2,61; 6,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 0,0</t>
+          <t>-6,7; -1,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,66</t>
+          <t>-2,77; 5,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 32,17</t>
+          <t>-4,09; 2,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 2,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 15,52</t>
+          <t>-2,52; 3,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,23</t>
+          <t>-2,37; 2,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,0</t>
+          <t>-4,49; -0,26</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>106,7%</t>
+          <t>-2,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>35,21%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-22,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>469,49%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>433,37%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-63,35%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-75,22; 219,54</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-62,53; 365,04</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,87; 274,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,23; 144,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,0; 150,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,82; 124,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,18; 124,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,41; 7,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-1,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,77</t>
+          <t>-4,73; 1,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,14</t>
+          <t>-5,34; 0,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 2,72</t>
+          <t>-5,05; 1,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 1,69</t>
+          <t>-4,47; 0,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 2,96</t>
+          <t>-4,97; 0,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; -1,79</t>
+          <t>-3,53; 2,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,42</t>
+          <t>-3,99; 0,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,36</t>
+          <t>-4,2; -0,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -0,39</t>
+          <t>-3,29; 0,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>-41,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,94%</t>
+          <t>-51,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,2%</t>
+          <t>-41,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-43,74%</t>
+          <t>-51,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-28,98%</t>
+          <t>-63,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-24,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,91%</t>
+          <t>-46,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,81%</t>
+          <t>-56,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-64,79%</t>
+          <t>-33,47%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,56; 292,12</t>
+          <t>-74,83; 52,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,23; 239,63</t>
+          <t>-82,81; 31,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,52; 158,96</t>
+          <t>-82,02; 54,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-89,23; 118,34</t>
+          <t>-85,6; 57,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,72; 193,21</t>
+          <t>-91,81; 32,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,35; 122,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,53; 92,38</t>
+          <t>-74,23; 5,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,97; 95,16</t>
+          <t>-80,75; -14,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-90,04; 10,23</t>
+          <t>-66,21; 29,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-2,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,61</t>
+          <t>-5,21; 1,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,08</t>
+          <t>-4,66; 1,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,78</t>
+          <t>-6,26; -0,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 1,25</t>
+          <t>-4,66; 1,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 0,37</t>
+          <t>-5,33; 0,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 1,16</t>
+          <t>-4,47; 1,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,02</t>
+          <t>-3,88; 0,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; -0,36</t>
+          <t>-3,77; 0,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,68</t>
+          <t>-4,34; -0,45</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-51,73%</t>
+          <t>-46,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-63,11%</t>
+          <t>-32,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,98%</t>
+          <t>-78,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-41,03%</t>
+          <t>-49,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-51,49%</t>
+          <t>-63,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>-43,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-46,09%</t>
+          <t>-47,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-56,89%</t>
+          <t>-47,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-34,35%</t>
+          <t>-62,36%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,0; 62,46</t>
+          <t>-91,91; 103,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,22; 18,06</t>
+          <t>-83,63; 106,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,17; 106,3</t>
+          <t>-100,0; -8,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-78,96; 54,43</t>
+          <t>-100,0; 146,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,37; 24,8</t>
+          <t>-100,0; 67,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,77; 66,17</t>
+          <t>-88,48; 116,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,82; 8,14</t>
+          <t>-81,25; 31,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,12; -7,81</t>
+          <t>-79,01; 20,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-69,85; 24,42</t>
+          <t>-86,09; -12,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-0,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,65</t>
+          <t>-0,72; 5,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 0,38</t>
+          <t>-2,33; 2,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,49</t>
+          <t>-3,65; 0,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 1,5</t>
+          <t>-2,5; 2,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,06</t>
+          <t>-3,42; 1,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,0; -0,53</t>
+          <t>-2,51; 2,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 0,31</t>
+          <t>-0,78; 3,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 0,23</t>
+          <t>-2,09; 1,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; -0,18</t>
+          <t>-2,48; 0,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-49,53%</t>
+          <t>104,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-63,25%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-40,78%</t>
+          <t>-65,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-46,3%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-32,74%</t>
+          <t>-36,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-75,14%</t>
+          <t>-13,41%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-47,83%</t>
+          <t>49,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-47,46%</t>
+          <t>-11,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-59,0%</t>
+          <t>-37,59%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-94,65; 149,05</t>
+          <t>-39,17; 570,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-92,73; 59,08</t>
+          <t>-75,56; 278,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-85,46; 112,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-89,15; 122,84</t>
+          <t>-75,17; 300,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,8; 131,88</t>
+          <t>-89,01; 145,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 11,12</t>
+          <t>-77,29; 264,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-82,65; 22,46</t>
+          <t>-29,65; 260,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-79,02; 16,84</t>
+          <t>-65,43; 115,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,07; 6,92</t>
+          <t>-80,57; 85,33</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,62</t>
+          <t>-1,85; 1,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,54</t>
+          <t>-2,29; 0,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,3</t>
+          <t>-3,89; -1,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,49</t>
+          <t>-2,1; 0,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,16</t>
+          <t>-2,88; -0,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 0,74</t>
+          <t>-2,26; 0,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,18</t>
+          <t>-1,61; 0,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,52</t>
+          <t>-2,06; -0,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,09</t>
+          <t>-2,53; -0,55</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-36,18%</t>
+          <t>-17,67%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-12,04%</t>
+          <t>-65,99%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>104,84%</t>
+          <t>-22,98%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>-48,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-65,56%</t>
+          <t>-27,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>-15,26%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>-32,91%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-37,51%</t>
+          <t>-46,55%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,4; 269,24</t>
+          <t>-43,6; 50,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,97; 229,2</t>
+          <t>-51,94; 36,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,79; 216,61</t>
+          <t>-84,58; -29,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 740,6</t>
+          <t>-54,11; 35,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 417,26</t>
+          <t>-71,9; -9,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,81; 22,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 235,29</t>
+          <t>-40,92; 20,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-63,55; 135,03</t>
+          <t>-54,62; 2,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-79,92; 106,02</t>
+          <t>-66,06; -17,16</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 0,73</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; -0,27</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 0,5</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 1,4</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,15; 1,0</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; -0,84</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 0,63</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; -0,02</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; -0,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-22,98%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-48,4%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-27,77%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-7,7%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-17,67%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-64,31%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-15,26%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-32,91%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-45,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-56,07; 27,63</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-74,33; -8,23</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-61,74; 21,28</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-43,82; 51,32</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-52,45; 40,37</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-83,57; -27,06</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-40,0; 23,26</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-55,59; -0,22</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-65,39; -19,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
